--- a/assets/Users/XLSX/ISEC-Telecom_Users.xlsx
+++ b/assets/Users/XLSX/ISEC-Telecom_Users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Deploy\Assets\CSV\Users\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeldidier\Documents\GitHub\ActiveDirectory-Monitoring-CESI-Project\assets\Users\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF896779-D632-4366-81A3-C122DA23793B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BC0472-19D4-401A-81DA-243B48DFC08C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{D86088FE-1FD1-4ECD-BB06-EA3DABDEAD5E}"/>
+    <workbookView xWindow="6860" yWindow="3152" windowWidth="19563" windowHeight="10256" xr2:uid="{D86088FE-1FD1-4ECD-BB06-EA3DABDEAD5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>Group</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Full-Login</t>
   </si>
   <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>Groups</t>
-  </si>
-  <si>
     <t>iSEC-Telecom</t>
   </si>
   <si>
@@ -183,6 +177,69 @@
   </si>
   <si>
     <t>busquet</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>OU=ADFI,OU=Service,OU=ISEC-Telecom,OU=Global,DC=isec-telecom,DC=local</t>
+  </si>
+  <si>
+    <t>OU=RH,OU=Service,OU=ISEC-Telecom,OU=Global,DC=isec-telecom,DC=local</t>
+  </si>
+  <si>
+    <t>OU=Commercial,OU=Service,OU=ISEC-Telecom,OU=Global,DC=isec-telecom,DC=local</t>
+  </si>
+  <si>
+    <t>OU=Direction,OU=Service,OU=ISEC-Telecom,OU=Global,DC=isec-telecom,DC=local</t>
+  </si>
+  <si>
+    <t>OU=Technical,OU=Service,OU=ISEC-Telecom,OU=Global,DC=isec-telecom,DC=local</t>
+  </si>
+  <si>
+    <t>TCOM-GRP-SEC-GLO-DIRECTION-HEAD</t>
+  </si>
+  <si>
+    <t>TCOM-GRP-SEC-GLO-DIRECTION-ASSISTANT</t>
+  </si>
+  <si>
+    <t>TCOM-GRP-SEC-GLO-TECH-HEAD</t>
+  </si>
+  <si>
+    <t>TCOM-GRP-SEC-GLO-TECH-NETOPS</t>
+  </si>
+  <si>
+    <t>TCOM-GRP-SEC-GLO-TECH-TECHNICIAN</t>
+  </si>
+  <si>
+    <t>TCOM-GRP-SEC-GLO-TECH-SUPPORT</t>
+  </si>
+  <si>
+    <t>TCOM-GRP-SEC-GLO-ADFI-IT</t>
+  </si>
+  <si>
+    <t>TCOM-GRP-SEC-GLO-ADFI-ACCOUNTING</t>
+  </si>
+  <si>
+    <t>TCOM-GRP-SEC-GLO-ADFI-SECRETARY</t>
+  </si>
+  <si>
+    <t>TCOM-GRP-SEC-GLO-HR-PAIE</t>
+  </si>
+  <si>
+    <t>TCOM-GRP-SEC-GLO-HR-HEAD</t>
+  </si>
+  <si>
+    <t>TCOM-GRP-SEC-GLO-ADFI-HEAD</t>
+  </si>
+  <si>
+    <t>TCOM-GRP-SEC-GLO-COMMERCIAL-HEAD</t>
+  </si>
+  <si>
+    <t>TCOM-GRP-SEC-GLO-COMMERCIAL-COMMERCIAL</t>
+  </si>
+  <si>
+    <t>TCOM-GRP-SEC-GLO-COMMERCIAL-COMMUNICATION</t>
   </si>
 </sst>
 </file>
@@ -218,10 +275,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B133CB-89F3-47DA-B24A-E4DFBE7EA2C1}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="77" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -554,8 +614,9 @@
     <col min="7" max="7" width="23.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11" style="1"/>
+    <col min="10" max="10" width="76.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -587,24 +648,24 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>PROPER(C2)</f>
@@ -626,19 +687,25 @@
         <f t="shared" ref="I2:I19" si="1">C2&amp;"."&amp;D2&amp;"@"&amp;B2</f>
         <v>olivier.rousseaux@isec-telecom.local</v>
       </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="str">
         <f t="shared" ref="E3:E19" si="2">PROPER(C3)</f>
@@ -660,19 +727,25 @@
         <f t="shared" si="1"/>
         <v>lucie.detritch@isec-telecom.local</v>
       </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="str">
         <f t="shared" si="2"/>
@@ -694,19 +767,25 @@
         <f t="shared" si="1"/>
         <v>lionel.gabru@isec-telecom.local</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="2"/>
@@ -728,19 +807,25 @@
         <f t="shared" si="1"/>
         <v>france.ballet@isec-telecom.local</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="str">
         <f t="shared" si="2"/>
@@ -762,19 +847,25 @@
         <f t="shared" si="1"/>
         <v>paul.lemarie@isec-telecom.local</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="2"/>
@@ -796,19 +887,25 @@
         <f t="shared" si="1"/>
         <v>hugues.vanchez@isec-telecom.local</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -830,19 +927,25 @@
         <f t="shared" si="1"/>
         <v>luc.dupre@isec-telecom.local</v>
       </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -864,19 +967,25 @@
         <f t="shared" si="1"/>
         <v>jean.tremis@isec-telecom.local</v>
       </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="str">
         <f t="shared" si="2"/>
@@ -898,19 +1007,25 @@
         <f t="shared" si="1"/>
         <v>gregoire.jolet@isec-telecom.local</v>
       </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="str">
         <f t="shared" si="2"/>
@@ -932,19 +1047,25 @@
         <f t="shared" si="1"/>
         <v>olivia.gabriel@isec-telecom.local</v>
       </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -966,19 +1087,25 @@
         <f t="shared" si="1"/>
         <v>joel.didier@isec-telecom.local</v>
       </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1000,19 +1127,25 @@
         <f t="shared" si="1"/>
         <v>louis.marjolet@isec-telecom.local</v>
       </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1034,19 +1167,25 @@
         <f t="shared" si="1"/>
         <v>charles.agostini@isec-telecom.local</v>
       </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1068,19 +1207,25 @@
         <f t="shared" si="1"/>
         <v>vicente.vaz@isec-telecom.local</v>
       </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1102,19 +1247,25 @@
         <f t="shared" si="1"/>
         <v>hélène.mingea@isec-telecom.local</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1136,19 +1287,25 @@
         <f t="shared" si="1"/>
         <v>daniele.troc@isec-telecom.local</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1170,19 +1327,25 @@
         <f t="shared" si="1"/>
         <v>bastien.pal@isec-telecom.local</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1203,6 +1366,12 @@
       <c r="I19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>nora.busquet@isec-telecom.local</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1212,18 +1381,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1412,18 +1581,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7FB3045-86EB-49A9-8C63-BD5AF1E42D22}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC99D291-D7A9-4F23-ACC0-50B4FBA14618}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC99D291-D7A9-4F23-ACC0-50B4FBA14618}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7FB3045-86EB-49A9-8C63-BD5AF1E42D22}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
